--- a/static/user_logs/worm_log_f27d901c-2430-437b-b2a8-9defe9aca499.xlsx
+++ b/static/user_logs/worm_log_f27d901c-2430-437b-b2a8-9defe9aca499.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1890,6 +1890,156 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>detected_DSC08107_48.jpg</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>48</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:02:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>detected_DSC08108_194.jpg</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>194</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:02:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>detected_DSC08109_144.jpg</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>144</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:02:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>detected_DSC08110_25.jpg</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>25</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:02:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>detected_DSC08111_28.jpg</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>28</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:02:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>detected_DSC08112_105.jpg</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>105</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:02:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>detected_DSC08113_72.jpg</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>72</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:02:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>detected_DSC08115_155.jpg</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>155</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:02:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>detected_DSC08116_113.jpg</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>113</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:03:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>detected_DSC08117_69.jpg</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>69</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:03:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/user_logs/worm_log_f27d901c-2430-437b-b2a8-9defe9aca499.xlsx
+++ b/static/user_logs/worm_log_f27d901c-2430-437b-b2a8-9defe9aca499.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,6 +2040,381 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>detected_DSC08082_112.jpg</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>112</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>detected_DSC08076_106.jpg</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>106</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>detected_DSC08077_92.jpg</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>92</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>detected_DSC08078_89.jpg</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>89</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>detected_DSC08079_44.jpg</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>44</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>detected_DSC08080_59.jpg</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>59</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>detected_DSC08082_112.jpg</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>detected_DSC08084_173.jpg</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>173</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>detected_DSC08086_168.jpg</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>168</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>detected_DSC08087_149.jpg</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>149</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>detected_DSC08090_140.jpg</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>140</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>detected_DSC08091_109.jpg</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>109</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>detected_DSC08092_117.jpg</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>117</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:04:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>detected_DSC08076_106.jpg</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>106</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>detected_DSC08077_92.jpg</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>92</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>detected_DSC08078_89.jpg</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>89</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>detected_DSC08079_44.jpg</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>44</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>detected_DSC08080_59.jpg</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>59</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>detected_DSC08082_112.jpg</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>112</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>detected_DSC08084_173.jpg</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>173</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>detected_DSC08086_168.jpg</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>168</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>detected_DSC08087_149.jpg</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>149</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>detected_DSC08090_140.jpg</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>140</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>detected_DSC08091_109.jpg</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>109</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>detected_DSC08092_117.jpg</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>117</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-07-14 17:06:50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
